--- a/PayrollProject/templates/CourtOrderFixedSocialSecurityInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderFixedSocialSecurityInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\ProvarAz\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DA03A9-3FCE-4DA4-A62B-B69069559619}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227FE8A7-EE96-4837-979D-FD94CDDCFADC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>EmpName</t>
   </si>
@@ -62,28 +62,37 @@
     <t>12000</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
   </si>
   <si>
-    <t>November-2018</t>
-  </si>
-  <si>
-    <t>December-2018</t>
-  </si>
-  <si>
-    <t>January-2019</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 119</t>
   </si>
   <si>
     <t>DEAFixedRateSocialSecurityDebt_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH DEAFIXED Social Security</t>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
+  </si>
+  <si>
+    <t>December-2019</t>
+  </si>
+  <si>
+    <t>January-2020</t>
+  </si>
+  <si>
+    <t>DO NOT DEA FIXEDSS OCT</t>
+  </si>
+  <si>
+    <t>DO NOT DEA FIXEDSS JAN</t>
+  </si>
+  <si>
+    <t>DO NOT DEA FIXEDSS DEC</t>
+  </si>
+  <si>
+    <t>DO NOT DEA FIXEDSS NOV</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +533,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -536,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>16</v>
@@ -559,7 +568,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +607,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -610,13 +619,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +642,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,10 +681,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -684,13 +693,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -706,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F0D33A-5E32-4612-B798-7FBD2BFD601E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +755,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -758,13 +767,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
